--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_7_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_7_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.193033135062038e-16</v>
+        <v>2.182256559459767e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.37219427897706</v>
+        <v>40.48454877747248</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.721089440000824, 46.0232991179533]</t>
+          <t>[33.61048482284843, 47.358612732096525]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.8176582119868874]</t>
+          <t>[1.4528686746331179, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.44817074747552</v>
+        <v>60.46802292125817</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.11053251354351, 66.78580898140754]</t>
+          <t>[56.13473236954824, 64.8013134729681]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.36296296296313</v>
+        <v>17.34558558558576</v>
       </c>
       <c r="X2" t="n">
-        <v>16.65905905905922</v>
+        <v>16.64048048048064</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.06686686686704</v>
+        <v>18.05069069069087</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.193033135062038e-16</v>
+        <v>2.182256559459767e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>41.21006926864359</v>
+        <v>37.31647123576759</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.154621732159534, 49.26551680512765]</t>
+          <t>[30.3581190007027, 44.27482347083249]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4088158608275005</v>
+        <v>0.09434212172942402</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.19497371824080734, 0.6226580034141938]</t>
+          <t>[-0.10692107129334438, 0.2956053147521924]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001973947505244933</v>
+        <v>0.3572887205444433</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001973947505244933</v>
+        <v>0.3572887205444433</v>
       </c>
       <c r="S3" t="n">
-        <v>58.84316152300789</v>
+        <v>57.33905410364679</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.41701027433802, 63.26931277167777]</t>
+          <t>[52.84740131019337, 61.83070689710021]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.42870870870884</v>
+        <v>22.54630630630644</v>
       </c>
       <c r="X3" t="n">
-        <v>20.64864864864878</v>
+        <v>21.81309309309323</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.20876876876891</v>
+        <v>23.27951951951966</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_7_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_7_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.182256559459767e-16</v>
+        <v>2.55959198760843e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.48454877747248</v>
+        <v>38.72893195837911</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.61048482284843, 47.358612732096525]</t>
+          <t>[31.85996789740726, 45.597896019350955]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.8302371615508104]</t>
+          <t>[1.4906055233248878, 1.8679740102425786]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.46802292125817</v>
+        <v>55.60998155155029</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.13473236954824, 64.8013134729681]</t>
+          <t>[51.34832539671716, 59.871637706383424]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.34558558558576</v>
+        <v>17.24852852852871</v>
       </c>
       <c r="X2" t="n">
-        <v>16.64048048048064</v>
+        <v>16.5416216216218</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.05069069069087</v>
+        <v>17.95543543543561</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.182256559459767e-16</v>
+        <v>2.55959198760843e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.31647123576759</v>
+        <v>37.93925525680777</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.3581190007027, 44.27482347083249]</t>
+          <t>[29.3897776831605, 46.488732830455035]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09434212172942402</v>
+        <v>-0.767315923399309</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.10692107129334438, 0.2956053147521924]</t>
+          <t>[-0.9811580659860013, -0.5534737808126167]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3572887205444433</v>
+        <v>8.180567334648003e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3572887205444433</v>
+        <v>8.180567334648003e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>57.33905410364679</v>
+        <v>56.61653201355162</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.84740131019337, 61.83070689710021]</t>
+          <t>[52.24524531295734, 60.9878187141459]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.54630630630644</v>
+        <v>2.758738738738753</v>
       </c>
       <c r="X3" t="n">
-        <v>21.81309309309323</v>
+        <v>1.989909909909922</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.27951951951966</v>
+        <v>3.527567567567584</v>
       </c>
     </row>
   </sheetData>
